--- a/data/trans_bre/P32-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P32-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_bre/P32-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P32-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,47</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,47</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,89</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-41,71%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,6%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,7; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,9; 8,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,91; 13,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,3; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,35</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,37</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-80,59%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,18%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,58%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-2,83; -0,25</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-8,37; -1,89</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-3,9; 1,64</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>-2,53; 2,4</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -11,48</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,31; 118,8</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,74; 254,24</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,07</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,24</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,21</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,68</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-72,7%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-65,72%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-57,51%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,93%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,82; -0,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,05; -0,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,79; -0,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,44; 3,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 10,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,54; 8,81</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,49; -5,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,0; 74,81</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,9</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,39</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,5</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,19</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-66,3%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-76,94%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-51,83%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-49,74%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,56; 0,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,6; -3,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,55; 0,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,43; 1,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 68,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-94,36; -39,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,23; 39,36</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,47; 37,71</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,62</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,88</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,75</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-61,31%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,04%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-86,09%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,47; 2,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,8; -1,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,55; 1,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,98; -5,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,33; 159,95</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,53; -21,55</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,97; 27,75</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-94,69; -66,9</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,26</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,58</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,0</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,37</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-45,94%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-67,96%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,11%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-55,22%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,36; -0,07</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,2; -3,19</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,52; -0,5</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,03; -1,51</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,69; 0,61</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,97; -50,87</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,61; -8,1</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,75; -28,23</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P32-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P32-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,22 +620,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,47</t>
+          <t>-1,05</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,47</t>
+          <t>-4,88</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,89</t>
+          <t>-0,68</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,17 +645,17 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-41,71%</t>
+          <t>-74,77%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>35,6%</t>
+          <t>-25,55%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-29,57%</t>
         </is>
       </c>
     </row>
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,7; 0,0</t>
+          <t>-2,83; -0,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,9; 8,08</t>
+          <t>-7,61; -1,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 13,38</t>
+          <t>-3,39; 2,16</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,3; 0,0</t>
+          <t>-2,77; 1,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,24 +693,24 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-93,17; -21,16</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,27; 125,79</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,88; 132,56</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,97</t>
+          <t>-2,07</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-5,35</t>
+          <t>-3,24</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,37</t>
+          <t>-3,21</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-72,7%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-80,59%</t>
+          <t>-65,72%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-42,18%</t>
+          <t>-57,51%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-15,58%</t>
+          <t>-13,47%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,83; -0,25</t>
+          <t>-3,82; -0,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,37; -1,89</t>
+          <t>-6,05; -0,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 1,64</t>
+          <t>-5,79; -0,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 2,4</t>
+          <t>-4,57; 3,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 10,98</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -11,48</t>
+          <t>-91,54; 8,81</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-87,31; 118,8</t>
+          <t>-80,49; -5,61</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-77,74; 254,24</t>
+          <t>-63,67; 73,81</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,07</t>
+          <t>-2,9</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,24</t>
+          <t>-6,39</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,21</t>
+          <t>-2,5</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,68</t>
+          <t>-4,08</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-72,7%</t>
+          <t>-66,3%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-65,72%</t>
+          <t>-76,94%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-57,51%</t>
+          <t>-51,83%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-11,93%</t>
+          <t>-64,7%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,82; -0,41</t>
+          <t>-5,56; 0,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,05; -0,51</t>
+          <t>-9,6; -3,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,79; -0,54</t>
+          <t>-5,55; 0,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 3,3</t>
+          <t>-9,54; -0,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 10,98</t>
+          <t>-100,0; 68,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-91,54; 8,81</t>
+          <t>-94,36; -39,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-80,49; -5,61</t>
+          <t>-86,23; 39,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-63,0; 74,81</t>
+          <t>-96,56; 7,58</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,9</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-6,39</t>
+          <t>-4,62</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-2,5</t>
+          <t>-1,88</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-3,19</t>
+          <t>-8,29</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-66,3%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-76,94%</t>
+          <t>-61,31%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-51,83%</t>
+          <t>-28,04%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-49,74%</t>
+          <t>-87,07%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 0,8</t>
+          <t>-2,47; 2,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,6; -3,15</t>
+          <t>-7,8; -1,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 0,52</t>
+          <t>-4,55; 1,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,43; 1,34</t>
+          <t>-11,87; -5,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 68,38</t>
+          <t>-68,33; 159,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-94,36; -39,96</t>
+          <t>-84,53; -21,55</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-86,23; 39,36</t>
+          <t>-56,97; 27,75</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-89,47; 37,71</t>
+          <t>-95,16; -69,31</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>-1,26</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-4,62</t>
+          <t>-4,58</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,88</t>
+          <t>-2,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-7,75</t>
+          <t>-3,8</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>-45,94%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-61,31%</t>
+          <t>-67,96%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-28,04%</t>
+          <t>-38,11%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-86,09%</t>
+          <t>-61,46%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 2,92</t>
+          <t>-2,36; -0,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,8; -1,57</t>
+          <t>-6,2; -3,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 1,25</t>
+          <t>-3,52; -0,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,98; -5,03</t>
+          <t>-5,83; -2,01</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-68,33; 159,95</t>
+          <t>-71,69; 0,61</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-84,53; -21,55</t>
+          <t>-81,97; -50,87</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-56,97; 27,75</t>
+          <t>-57,61; -8,1</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-94,69; -66,9</t>
+          <t>-80,69; -37,84</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-1,26</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-4,58</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-2,0</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-3,37</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-45,94%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-67,96%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-38,11%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-55,22%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-2,36; -0,07</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-6,2; -3,19</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-3,52; -0,5</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-5,03; -1,51</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-71,69; 0,61</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-81,97; -50,87</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-57,61; -8,1</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-73,75; -28,23</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P32-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P32-Habitat-trans_bre.xlsx
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,83; -0,24</t>
+          <t>-2,93; -0,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,61; -1,69</t>
+          <t>-7,8; -1,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 2,16</t>
+          <t>-3,42; 2,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 1,6</t>
+          <t>-2,64; 1,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,17 +693,17 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-93,17; -21,16</t>
+          <t>-93,78; -23,47</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-82,27; 125,79</t>
+          <t>-80,4; 107,76</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-82,88; 132,56</t>
+          <t>-84,41; 197,66</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,82; -0,41</t>
+          <t>-3,79; -0,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,05; -0,51</t>
+          <t>-5,83; -0,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,79; -0,54</t>
+          <t>-5,69; -0,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 3,22</t>
+          <t>-4,33; 3,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 10,98</t>
+          <t>-100,0; 22,5</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-91,54; 8,81</t>
+          <t>-92,21; -4,16</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-80,49; -5,61</t>
+          <t>-82,33; -8,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-63,67; 73,81</t>
+          <t>-60,43; 87,07</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 0,8</t>
+          <t>-5,61; 0,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,6; -3,15</t>
+          <t>-9,62; -3,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 0,52</t>
+          <t>-5,77; 0,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,54; -0,12</t>
+          <t>-9,66; -0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 68,38</t>
+          <t>-100,0; 105,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-94,36; -39,96</t>
+          <t>-94,46; -35,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-86,23; 39,36</t>
+          <t>-86,95; 17,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-96,56; 7,58</t>
+          <t>-96,54; 4,18</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 2,92</t>
+          <t>-2,19; 3,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,8; -1,57</t>
+          <t>-7,89; -1,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 1,25</t>
+          <t>-4,74; 1,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,87; -5,51</t>
+          <t>-12,28; -5,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-68,33; 159,95</t>
+          <t>-59,53; 150,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-84,53; -21,55</t>
+          <t>-84,16; -23,34</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-56,97; 27,75</t>
+          <t>-59,65; 25,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-95,16; -69,31</t>
+          <t>-94,88; -69,79</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,36; -0,07</t>
+          <t>-2,3; -0,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,2; -3,19</t>
+          <t>-5,96; -2,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,52; -0,5</t>
+          <t>-3,57; -0,61</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,83; -2,01</t>
+          <t>-5,72; -1,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-71,69; 0,61</t>
+          <t>-73,02; 2,35</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-81,97; -50,87</t>
+          <t>-80,37; -46,23</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-57,61; -8,1</t>
+          <t>-56,58; -10,58</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-80,69; -37,84</t>
+          <t>-81,51; -35,92</t>
         </is>
       </c>
     </row>
